--- a/PX4的相关步骤/PX4参数含义.xlsx
+++ b/PX4的相关步骤/PX4参数含义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24480" windowHeight="12420"/>
+    <workbookView windowWidth="18600" windowHeight="20295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>参数名称</t>
   </si>
@@ -182,6 +182,14 @@
   <si>
     <t>0表示使用油门杆控制小车前进速度，偏航杆控制小车转向。
 1表示使用俯仰杆控制小车前进速度，滚转杆控制小车转向。</t>
+  </si>
+  <si>
+    <t>OM_OBL_RC_ACT</t>
+  </si>
+  <si>
+    <t>用于当offboard模式推出后，选择进入哪个手动模式
+-1：Disabled  0:Position mode  1:Altitude mode  2:Manual
+3:Return mode  4:Land mode  5:Hold mode  6：Terminate  7:Lockdown</t>
   </si>
 </sst>
 </file>
@@ -189,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -204,7 +212,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,129 +334,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +370,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,163 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,23 +622,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,30 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -685,17 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,152 +712,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1222,15 +1233,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="32.2660550458716" customWidth="1"/>
+    <col min="4" max="4" width="32.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -1461,12 +1472,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" ht="30.75" spans="2:4">
+    <row r="31" ht="33" spans="2:4">
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" ht="63" spans="2:4">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1507,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1505,7 +1524,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
